--- a/data/HDI.xlsx
+++ b/data/HDI.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB812AD0-17E1-BA4E-97E6-B28066D5E809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E091F51-FB02-3849-BE92-0F99E63CAFD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" activeTab="1" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="centroids" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -375,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D255D9-B258-054F-BBA5-065E56A6DECE}">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="106" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C26"/>
+    <sheetView topLeftCell="A184" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190:C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2529,4 +2530,85 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC2AF3C-E7BF-174A-AAAB-C600218D13FC}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/HDI.xlsx
+++ b/data/HDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereirar/Documents/GitHub/mcda/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E091F51-FB02-3849-BE92-0F99E63CAFD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC641674-7AF2-B44B-99B0-3DF7FA93D2BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" activeTab="1" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15440" xr2:uid="{31DC8480-D239-2045-A0F3-65C89ECF59A8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D255D9-B258-054F-BBA5-065E56A6DECE}">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScale="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="106" workbookViewId="0">
       <selection activeCell="A190" sqref="A190:C195"/>
     </sheetView>
   </sheetViews>
@@ -2462,70 +2462,34 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>0</v>
-      </c>
-      <c r="B190" s="1">
-        <v>0</v>
-      </c>
-      <c r="C190" s="1">
-        <v>0</v>
-      </c>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="B191" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C191" s="2">
-        <v>0.43</v>
-      </c>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="B192" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="C192" s="2">
-        <v>0.64</v>
-      </c>
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="B193" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="C193" s="2">
-        <v>0.83</v>
-      </c>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="B194" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="C194" s="2">
-        <v>0.93</v>
-      </c>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>1</v>
-      </c>
-      <c r="B195" s="1">
-        <v>1</v>
-      </c>
-      <c r="C195" s="1">
-        <v>1</v>
-      </c>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2536,7 +2500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC2AF3C-E7BF-174A-AAAB-C600218D13FC}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
